--- a/biology/Botanique/Macropsychanthus/Macropsychanthus.xlsx
+++ b/biology/Botanique/Macropsychanthus/Macropsychanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macropsychanthus est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, et dont l"espèce-type est Macropsychanthus lauterbachii Harms.
-Ce genre a fait l'objet de révisions taxinomique en 2020[3].
+Ce genre a fait l'objet de révisions taxinomique en 2020.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (04 juin 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (04 juin 2022) :
 Macropsychanthus apiculatus (R.H.Maxwell) L.P.Queiroz &amp; Snak
 Macropsychanthus aureus (R.H.Maxwell) L.P.Queiroz &amp; Snak
 Macropsychanthus bicolor (Hoffmanns. ex Benth.) L.P.Queiroz &amp; Snak
@@ -569,7 +583,7 @@
 Macropsychanthus umbrinus (Elmer) L.P.Queiroz &amp; Snak
 Macropsychanthus violaceus (Mart. ex Benth.) L.P.Queiroz &amp; Snak
 Macropsychanthus wilsonii (Standl.) L.P.Queiroz &amp; Snak
-Selon The Plant List            (3 novembre 2018)[4] :
+Selon The Plant List            (3 novembre 2018) :
 Macropsychanthus dolichobotrys Holthuis
 Macropsychanthus lauterbachii Harms
 Macropsychanthus mindanaensis Merr.</t>
